--- a/src/main/resources/Data.xlsx
+++ b/src/main/resources/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chibi\IdeaProjects\solidPrj\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmull\IdeaProjects\KODIGO\solidPrj\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7028F373-B35E-4E71-94B4-E04EF60CB42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE20D0A-D2D2-415C-A88B-4C987AA2DAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="210" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights 2021-06-12" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>A130</t>
   </si>
   <si>
-    <t>On Time</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>ON_TIME</t>
   </si>
 </sst>
 </file>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -478,24 +478,24 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="10" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,34 +506,34 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
@@ -545,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="Q1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -565,19 +565,19 @@
         <v>500</v>
       </c>
       <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
       </c>
       <c r="K2" s="2">
         <v>44319</v>
@@ -592,24 +592,24 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -618,19 +618,19 @@
         <v>1000</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
       </c>
       <c r="K3" s="2">
         <v>44348</v>
@@ -645,24 +645,24 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
         <v>13</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
       </c>
       <c r="Q3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -671,19 +671,19 @@
         <v>1000</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
       </c>
       <c r="K4" s="2">
         <v>44348</v>
@@ -698,10 +698,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
         <v>13</v>
-      </c>
-      <c r="P4" t="s">
-        <v>14</v>
       </c>
       <c r="Q4" t="b">
         <v>1</v>
